--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1889248.912816796</v>
+        <v>-1891836.424022373</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>30.20416215797502</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>296.3356618821741</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.08148421406804</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.6084519684973</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.6844009926735</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>166.1014899708501</v>
       </c>
       <c r="H4" t="n">
-        <v>145.4278941339733</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.62837588899006</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978301</v>
       </c>
       <c r="S4" t="n">
         <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>219.8723165903172</v>
+        <v>214.3527364490318</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2159662989849</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>261.8755095217016</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>14.95687341106364</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586319</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>8.347871548094217</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>374.7451007731826</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>341.833704100969</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>138.214606011382</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8.438264012426929</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444146</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>146.9393756113373</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272894</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>185.4048731212351</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722615</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>102.1557845699756</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>114.2935157990532</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.65140663107498</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,10 +2056,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673022</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>70.04554881124291</v>
+        <v>150.3341561773493</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922689</v>
+        <v>108.2950343703267</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>6.434538210426162</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428263</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>167.1115298725985</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526172</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545291</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1616.909285052511</v>
+        <v>1137.521980127556</v>
       </c>
       <c r="C2" t="n">
-        <v>1247.9467681121</v>
+        <v>768.5594631871447</v>
       </c>
       <c r="D2" t="n">
-        <v>889.6810695053496</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="E2" t="n">
-        <v>503.8928169071055</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="F2" t="n">
-        <v>92.90691211749794</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="G2" t="n">
-        <v>62.39765741247278</v>
+        <v>410.2937645803942</v>
       </c>
       <c r="H2" t="n">
-        <v>62.39765741247278</v>
+        <v>110.9648131842587</v>
       </c>
       <c r="I2" t="n">
-        <v>62.39765741247278</v>
+        <v>62.39765741247282</v>
       </c>
       <c r="J2" t="n">
-        <v>237.1001391730314</v>
+        <v>237.1001391730306</v>
       </c>
       <c r="K2" t="n">
-        <v>549.6723906315698</v>
+        <v>549.6723906315688</v>
       </c>
       <c r="L2" t="n">
-        <v>974.3476699529742</v>
+        <v>974.3476699529737</v>
       </c>
       <c r="M2" t="n">
         <v>1478.55018180827</v>
       </c>
       <c r="N2" t="n">
-        <v>1995.525025811715</v>
+        <v>1995.525025811714</v>
       </c>
       <c r="O2" t="n">
         <v>2470.354450076072</v>
       </c>
       <c r="P2" t="n">
-        <v>2841.109377259759</v>
+        <v>2841.109377259761</v>
       </c>
       <c r="Q2" t="n">
-        <v>3071.358140510239</v>
+        <v>3071.35814051024</v>
       </c>
       <c r="R2" t="n">
-        <v>3119.882870623639</v>
+        <v>3119.882870623641</v>
       </c>
       <c r="S2" t="n">
-        <v>3119.882870623639</v>
+        <v>3005.708673672843</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.882870623639</v>
+        <v>2798.98489661496</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.882870623639</v>
+        <v>2545.440785998363</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.882870623639</v>
+        <v>2214.377898654792</v>
       </c>
       <c r="W2" t="n">
-        <v>2767.114215353525</v>
+        <v>1861.609243384678</v>
       </c>
       <c r="X2" t="n">
-        <v>2393.648457092445</v>
+        <v>1527.661312103368</v>
       </c>
       <c r="Y2" t="n">
-        <v>2003.509125116633</v>
+        <v>1137.521980127556</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1494.450283274069</v>
+        <v>1494.450283274071</v>
       </c>
       <c r="C3" t="n">
-        <v>1319.997253992942</v>
+        <v>1319.997253992944</v>
       </c>
       <c r="D3" t="n">
-        <v>1171.062844331691</v>
+        <v>1171.062844331693</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.825389326235</v>
+        <v>1011.825389326237</v>
       </c>
       <c r="F3" t="n">
-        <v>865.2908313531201</v>
+        <v>865.2908313531219</v>
       </c>
       <c r="G3" t="n">
-        <v>728.8365465046202</v>
+        <v>728.836546504622</v>
       </c>
       <c r="H3" t="n">
-        <v>637.4540000906368</v>
+        <v>637.4540000906386</v>
       </c>
       <c r="I3" t="n">
-        <v>625.5352633414047</v>
+        <v>625.5352633414066</v>
       </c>
       <c r="J3" t="n">
-        <v>710.7690176891849</v>
+        <v>710.7690176891867</v>
       </c>
       <c r="K3" t="n">
-        <v>1068.312822670918</v>
+        <v>934.6019044271202</v>
       </c>
       <c r="L3" t="n">
-        <v>1415.606302739112</v>
+        <v>1415.606302739114</v>
       </c>
       <c r="M3" t="n">
-        <v>1840.238281375768</v>
+        <v>1840.238281375769</v>
       </c>
       <c r="N3" t="n">
-        <v>2290.517649870796</v>
+        <v>2290.517649870798</v>
       </c>
       <c r="O3" t="n">
-        <v>2680.215507629991</v>
+        <v>2680.215507629993</v>
       </c>
       <c r="P3" t="n">
-        <v>2973.649328608492</v>
+        <v>2973.649328608494</v>
       </c>
       <c r="Q3" t="n">
-        <v>3119.882870623639</v>
+        <v>3119.882870623641</v>
       </c>
       <c r="R3" t="n">
-        <v>3119.882870623639</v>
+        <v>3119.882870623641</v>
       </c>
       <c r="S3" t="n">
-        <v>2988.751268658632</v>
+        <v>2988.751268658634</v>
       </c>
       <c r="T3" t="n">
-        <v>2795.740730082332</v>
+        <v>2795.740730082333</v>
       </c>
       <c r="U3" t="n">
-        <v>2567.666884224568</v>
+        <v>2567.66688422457</v>
       </c>
       <c r="V3" t="n">
-        <v>2332.514775992825</v>
+        <v>2332.514775992827</v>
       </c>
       <c r="W3" t="n">
-        <v>2078.277419264624</v>
+        <v>2078.277419264626</v>
       </c>
       <c r="X3" t="n">
-        <v>1870.425919059091</v>
+        <v>1870.425919059093</v>
       </c>
       <c r="Y3" t="n">
-        <v>1662.665620294137</v>
+        <v>1662.665620294139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>773.7050119932376</v>
+        <v>943.6574257419484</v>
       </c>
       <c r="C4" t="n">
-        <v>773.7050119932376</v>
+        <v>774.7212428140415</v>
       </c>
       <c r="D4" t="n">
-        <v>623.5883725809018</v>
+        <v>624.6046034017057</v>
       </c>
       <c r="E4" t="n">
-        <v>623.5883725809018</v>
+        <v>476.6915098193126</v>
       </c>
       <c r="F4" t="n">
-        <v>476.6984250829914</v>
+        <v>329.8015623214022</v>
       </c>
       <c r="G4" t="n">
-        <v>308.9191422841529</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0222795225637</v>
+        <v>162.0222795225638</v>
       </c>
       <c r="I4" t="n">
-        <v>62.39765741247278</v>
+        <v>62.39765741247282</v>
       </c>
       <c r="J4" t="n">
         <v>102.2230998038608</v>
       </c>
       <c r="K4" t="n">
-        <v>297.5053722589867</v>
+        <v>297.5053722589869</v>
       </c>
       <c r="L4" t="n">
-        <v>602.9258822712703</v>
+        <v>602.9258822712707</v>
       </c>
       <c r="M4" t="n">
-        <v>935.3381100583202</v>
+        <v>935.3381100583206</v>
       </c>
       <c r="N4" t="n">
-        <v>1265.280934468308</v>
+        <v>1265.280934468309</v>
       </c>
       <c r="O4" t="n">
         <v>1554.020240090065</v>
@@ -4510,28 +4510,28 @@
         <v>1848.902273001216</v>
       </c>
       <c r="R4" t="n">
-        <v>1848.902273001216</v>
+        <v>1755.634517809516</v>
       </c>
       <c r="S4" t="n">
-        <v>1655.884140512501</v>
+        <v>1562.616385320801</v>
       </c>
       <c r="T4" t="n">
-        <v>1433.790891431372</v>
+        <v>1346.098469715718</v>
       </c>
       <c r="U4" t="n">
-        <v>1144.683854765731</v>
+        <v>1346.098469715718</v>
       </c>
       <c r="V4" t="n">
-        <v>1144.683854765731</v>
+        <v>1346.098469715718</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.683854765731</v>
+        <v>1346.098469715718</v>
       </c>
       <c r="X4" t="n">
-        <v>1144.683854765731</v>
+        <v>1346.098469715718</v>
       </c>
       <c r="Y4" t="n">
-        <v>923.8912756222009</v>
+        <v>1125.305890572188</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875905</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C5" t="n">
-        <v>1528.069587875905</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D5" t="n">
-        <v>1169.803889269154</v>
+        <v>889.426272875103</v>
       </c>
       <c r="E5" t="n">
-        <v>784.0156366709098</v>
+        <v>503.6380202768588</v>
       </c>
       <c r="F5" t="n">
-        <v>373.0297318813022</v>
+        <v>92.65211548725119</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>81.62006937265174</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>81.62006937265174</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915838</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940026</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856.503009960934</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C7" t="n">
-        <v>687.5668270330272</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D7" t="n">
-        <v>537.4501876206914</v>
+        <v>313.5427886871656</v>
       </c>
       <c r="E7" t="n">
-        <v>389.5370940382983</v>
+        <v>165.6296951047725</v>
       </c>
       <c r="F7" t="n">
-        <v>242.6471465403879</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>74.94430991510689</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>74.94430991510689</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971664</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1548.361223971664</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1258.944053934704</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X7" t="n">
-        <v>1258.944053934704</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y7" t="n">
-        <v>1038.151474791174</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C8" t="n">
-        <v>1238.038871968309</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D8" t="n">
-        <v>879.773173361559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>493.9849207633147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>487.0394200141113</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>690.6749427105746</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>521.7387597826677</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>521.7387597826677</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>373.8256662002746</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1637.254707670396</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U10" t="n">
-        <v>1637.254707670396</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1637.254707670396</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.837537633435</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>872.3234075408143</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5057,31 +5057,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356196</v>
+        <v>847.6442739835333</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711975</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2298.539471851637</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1465.362586952988</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517213</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400654</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121585</v>
+        <v>929.7309773356185</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121585</v>
+        <v>779.6143379232827</v>
       </c>
       <c r="E16" t="n">
-        <v>197.0043242297654</v>
+        <v>631.7012443408896</v>
       </c>
       <c r="F16" t="n">
-        <v>197.0043242297654</v>
+        <v>484.8112968429794</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580254</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832656</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487561</v>
+        <v>2264.469384076043</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510502</v>
+        <v>2044.867919098984</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.3858538547</v>
+        <v>1755.792692443182</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648813</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611853</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138353</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703051</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>1057.613315601759</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>888.6771326738524</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>738.5604932615167</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>590.6473996791237</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>443.7574521812135</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>276.5613528960936</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533435</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1688.043910473546</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>1460.054359575529</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1239.261780431999</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656162</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377092</v>
+        <v>929.7309773356196</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253735</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5902,19 +5902,19 @@
         <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,7 +5932,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5941,19 +5941,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>2126.309465880251</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.624977674364</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1582.207807637404</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1354.218256739386</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.425677595856</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.9555321712453</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>558.0193492433382</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310024</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2190.563011941682</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1901.48778528588</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1646.803297079993</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1357.386127043033</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1129.396576145015</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.603997001485</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,13 +6236,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400722</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121653</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121653</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121653</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121653</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2095.308724111328</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.502065570312</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656812</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,13 +6616,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311324</v>
@@ -6646,25 +6646,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6740,7 +6740,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
         <v>533.5814564942655</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,13 +6883,13 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6901,7 +6901,7 @@
         <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7123,22 +7123,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,7 +7564,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,25 +7573,25 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7792,25 +7792,25 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8058,10 +8058,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0615335795952</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135.0615335795951</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>380.8862828895811</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>296.3356618821741</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>48.08148421406803</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>113.0324549812898</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>204.6565392873045</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0086695104302</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>39.12264870997177</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.14757918926378</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339733</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>92.33507763978301</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>5.51958014128536</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>34.08691039030732</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>101.1181252153559</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>63.36835372229327</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>66.73277020259138</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.64330621514889</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194191</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>216.1389255780013</v>
+        <v>135.8503182118948</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>210.9709121168622</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194124</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>50.29392045468972</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.110667527536862e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>82889.17417537626</v>
+        <v>82889.17417537628</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26323,7 +26323,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="F2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="G2" t="n">
         <v>100893.3249612508</v>
@@ -26335,10 +26335,10 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
@@ -26347,13 +26347,13 @@
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>1271067.297476341</v>
       </c>
       <c r="C3" t="n">
-        <v>54832.77288023767</v>
+        <v>54832.77288023745</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>204074.6584503629</v>
+        <v>204074.658450363</v>
       </c>
       <c r="K3" t="n">
-        <v>32664.34410594291</v>
+        <v>32664.34410594273</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>15222.72472702449</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181808</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181804</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181811</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181811</v>
       </c>
       <c r="K4" t="n">
+        <v>20377.7794449116</v>
+      </c>
+      <c r="L4" t="n">
         <v>20377.77944491162</v>
       </c>
-      <c r="L4" t="n">
-        <v>20377.7794449116</v>
-      </c>
       <c r="M4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491162</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
         <v>20377.7794449116</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1307292.876640032</v>
+        <v>-1307687.697581186</v>
       </c>
       <c r="C6" t="n">
-        <v>-151710.447161765</v>
+        <v>-151710.4471617648</v>
       </c>
       <c r="D6" t="n">
-        <v>-96877.67428152733</v>
+        <v>-96877.67428152735</v>
       </c>
       <c r="E6" t="n">
-        <v>-338028.5868518297</v>
+        <v>-338063.3247772657</v>
       </c>
       <c r="F6" t="n">
-        <v>-12616.12504447444</v>
+        <v>-12650.86296991017</v>
       </c>
       <c r="G6" t="n">
-        <v>-12616.12504447445</v>
+        <v>-12650.86296991016</v>
       </c>
       <c r="H6" t="n">
-        <v>-12616.12504447447</v>
+        <v>-12650.86296991014</v>
       </c>
       <c r="I6" t="n">
-        <v>-12616.12504447447</v>
+        <v>-12650.86296991011</v>
       </c>
       <c r="J6" t="n">
-        <v>-216690.7834948374</v>
+        <v>-216725.5214202732</v>
       </c>
       <c r="K6" t="n">
-        <v>-53576.01817173448</v>
+        <v>-53576.01817173424</v>
       </c>
       <c r="L6" t="n">
-        <v>-20911.67406579154</v>
+        <v>-20911.67406579155</v>
       </c>
       <c r="M6" t="n">
-        <v>-105966.7020013034</v>
+        <v>-105966.7020013035</v>
       </c>
       <c r="N6" t="n">
-        <v>-20911.67406579155</v>
+        <v>-20911.67406579161</v>
       </c>
       <c r="O6" t="n">
         <v>-20911.67406579154</v>
       </c>
       <c r="P6" t="n">
-        <v>-40339.39205942334</v>
+        <v>-40339.39205942336</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559098</v>
+        <v>779.9707176559102</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>779.9707176559098</v>
+        <v>779.9707176559102</v>
       </c>
       <c r="C4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638242</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559098</v>
+        <v>779.9707176559104</v>
       </c>
       <c r="K4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638242</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>779.9707176559098</v>
+        <v>779.9707176559102</v>
       </c>
       <c r="K4" t="n">
-        <v>51.4307377463831</v>
+        <v>51.43073774638242</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>149.0462161317518</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>26.62005636186231</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>47.29464513706806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>88.00454886174387</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>36.17662488027088</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>7.407264616443967</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7.206442011549228</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>211.1106852637423</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>522.1224556861836</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511221</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>726.7533607666126</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.586862646002</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>291.8940795642898</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>520.3372160854087</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,10 +33494,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>746.4857620875799</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33895,10 +33895,10 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>479.6444630806909</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>86.09470136139413</v>
       </c>
       <c r="K3" t="n">
-        <v>361.1553585674067</v>
+        <v>226.0938249878115</v>
       </c>
       <c r="L3" t="n">
-        <v>350.801495018378</v>
+        <v>485.8630285979731</v>
       </c>
       <c r="M3" t="n">
         <v>428.9211905420767</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8432633066776</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998918</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>584.6193268445942</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295337</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36534,7 +36534,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>377.7409716409642</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1440500042467</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,16 +37227,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37543,10 +37543,10 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>337.5104291586726</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
